--- a/miniproject/template/Lectures/Lecture 9.xlsx
+++ b/miniproject/template/Lectures/Lecture 9.xlsx
@@ -37,10 +37,10 @@
     <t>Example</t>
   </si>
   <si>
-    <t>Meaning （English）</t>
-  </si>
-  <si>
     <t>Meaning</t>
+  </si>
+  <si>
+    <t>Meaning（中文）</t>
   </si>
   <si>
     <t>level_2</t>
@@ -1731,12 +1731,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1772,12 +1772,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF111111"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -1834,6 +1828,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1842,17 +1843,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1872,14 +1875,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1888,24 +1883,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1925,6 +1907,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1933,24 +1929,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1989,7 +1983,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2001,19 +1995,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2025,25 +2019,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,13 +2049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,13 +2061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,37 +2079,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2139,7 +2109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2157,19 +2133,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2261,15 +2255,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2281,6 +2266,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2313,148 +2307,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2500,7 +2494,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2509,16 +2509,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2842,8 +2836,8 @@
   <sheetPr/>
   <dimension ref="A1:Z126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:X1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>

--- a/miniproject/template/Lectures/Lecture 9.xlsx
+++ b/miniproject/template/Lectures/Lecture 9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400"/>
+    <workbookView windowWidth="28800" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>Meaning</t>
   </si>
   <si>
-    <t>Meaning（中文）</t>
+    <t>Translation</t>
   </si>
   <si>
     <t>level_2</t>
@@ -1731,10 +1731,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1813,13 +1813,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1828,8 +1821,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1843,9 +1837,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1856,6 +1863,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1875,19 +1890,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1901,14 +1915,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1930,21 +1944,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1983,162 +1983,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2151,7 +1995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2163,7 +2007,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2240,17 +2240,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2270,22 +2266,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2304,148 +2295,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2837,7 +2837,7 @@
   <dimension ref="A1:Z126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>

--- a/miniproject/template/Lectures/Lecture 9.xlsx
+++ b/miniproject/template/Lectures/Lecture 9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\towS2\Desktop\第四版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\towS2\Desktop\第四版 final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{0FB1AD4C-0F2C-40BD-9292-51810B2B5A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{4A5FECBA-BB7E-4B97-BA0B-4AF6218599B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,8 +22,8 @@
   <calcPr calcId="181029"/>
   <customWorkbookViews>
     <customWorkbookView name="Ray Liu - 个人视图" guid="{6042611E-E784-4ED2-8196-D3BB33193F17}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1102" activeSheetId="1"/>
+    <customWorkbookView name="UIC - Personal View" guid="{361B79A2-7CA6-4057-95EF-C8897422D15F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="1" showComments="commIndAndComment"/>
     <customWorkbookView name="Bella - Personal View" guid="{F9F41ACE-8F0F-4AF7-BC1F-2F412C7435C0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="1"/>
-    <customWorkbookView name="UIC - Personal View" guid="{361B79A2-7CA6-4057-95EF-C8897422D15F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="1" showComments="commIndAndComment"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2142,7 +2142,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DA47F821-C796-4BE3-8AA0-33A2087F973A}" diskRevisions="1" revisionId="2219" version="10">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A805B201-13E4-462B-8307-73A81B6DEE1C}" diskRevisions="1" revisionId="2222" version="13">
   <header guid="{4B2958EC-64AB-4C4E-A7C3-A5EE04F91C71}" dateTime="2021-08-09T11:46:31" maxSheetId="2" userName="UIC" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -2289,6 +2289,21 @@
     </sheetIdMap>
   </header>
   <header guid="{DA47F821-C796-4BE3-8AA0-33A2087F973A}" dateTime="2021-08-31T21:56:51" maxSheetId="2" userName="Ray Liu" r:id="rId30" minRId="2215" maxRId="2218">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A55E76FD-05F8-4666-B533-770A0655C099}" dateTime="2021-08-31T22:09:42" maxSheetId="2" userName="Ray Liu" r:id="rId31">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4B523006-C517-46E8-AB57-9415A1B883EA}" dateTime="2021-09-01T00:20:10" maxSheetId="2" userName="Ray Liu" r:id="rId32">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A805B201-13E4-462B-8307-73A81B6DEE1C}" dateTime="2021-09-01T08:02:59" maxSheetId="2" userName="Ray Liu" r:id="rId33">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -17328,6 +17343,39 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{6042611E-E784-4ED2-8196-D3BB33193F17}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_6042611E_E784_4ED2_8196_D3BB33193F17_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$W$126</formula>
+    <oldFormula>Sheet1!$A$1:$W$126</oldFormula>
+  </rdn>
+  <rcv guid="{6042611E-E784-4ED2-8196-D3BB33193F17}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{6042611E-E784-4ED2-8196-D3BB33193F17}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_6042611E_E784_4ED2_8196_D3BB33193F17_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$W$126</formula>
+    <oldFormula>Sheet1!$A$1:$W$126</oldFormula>
+  </rdn>
+  <rcv guid="{6042611E-E784-4ED2-8196-D3BB33193F17}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{6042611E-E784-4ED2-8196-D3BB33193F17}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_6042611E_E784_4ED2_8196_D3BB33193F17_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$W$126</formula>
+    <oldFormula>Sheet1!$A$1:$W$126</oldFormula>
+  </rdn>
+  <rcv guid="{6042611E-E784-4ED2-8196-D3BB33193F17}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="3" sId="1">
@@ -17743,8 +17791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -18103,11 +18151,11 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
@@ -18121,31 +18169,31 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901004</v>
+        <v/>
       </c>
       <c r="P5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "in the wake of the pandemic "?</v>
+        <v/>
       </c>
       <c r="Q5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901004</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "in the wake of the pandemic "?</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="10"/>
@@ -18261,11 +18309,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
@@ -18279,31 +18327,31 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901006</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "a two-goal cushion"?</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901006</v>
+        <v/>
       </c>
       <c r="R7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "a two-goal cushion"?</v>
+        <v/>
       </c>
       <c r="S7" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T7" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="10"/>
@@ -18498,11 +18546,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
@@ -18516,31 +18564,31 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901009</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "a wedge issue"?</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901009</v>
+        <v/>
       </c>
       <c r="R10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "a wedge issue"?</v>
+        <v/>
       </c>
       <c r="S10" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U10" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="10"/>
@@ -18656,11 +18704,11 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
@@ -18674,31 +18722,31 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901011</v>
+        <v/>
       </c>
       <c r="P12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "We are on the same wavelength"?</v>
+        <v/>
       </c>
       <c r="Q12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901011</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "We are on the same wavelength"?</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="10"/>
@@ -18735,11 +18783,11 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
@@ -18753,31 +18801,31 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901012</v>
+        <v/>
       </c>
       <c r="P13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "live in a bubble"?</v>
+        <v/>
       </c>
       <c r="Q13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901012</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "live in a bubble"?</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="10"/>
@@ -18972,11 +19020,11 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
@@ -18990,31 +19038,31 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901015</v>
+        <v/>
       </c>
       <c r="P16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "love handle"?</v>
+        <v/>
       </c>
       <c r="Q16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901015</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "love handle"?</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="10"/>
@@ -19130,11 +19178,11 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
@@ -19148,31 +19196,31 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901017</v>
+        <v/>
       </c>
       <c r="P18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "shotgun wedding"?</v>
+        <v/>
       </c>
       <c r="Q18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901017</v>
       </c>
       <c r="R18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "shotgun wedding"?</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="10"/>
@@ -19209,11 +19257,11 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
@@ -19227,31 +19275,31 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901018</v>
+        <v/>
       </c>
       <c r="P19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "riding on one's coat-tails"?</v>
+        <v/>
       </c>
       <c r="Q19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901018</v>
       </c>
       <c r="R19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "riding on one's coat-tails"?</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" si="10"/>
@@ -19683,11 +19731,11 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
@@ -19701,31 +19749,31 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901024</v>
+        <v/>
       </c>
       <c r="P25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "early bird"?</v>
+        <v/>
       </c>
       <c r="Q25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901024</v>
       </c>
       <c r="R25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "early bird"?</v>
       </c>
       <c r="S25" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T25" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="10"/>
@@ -19920,11 +19968,11 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
@@ -19938,31 +19986,31 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901027</v>
+        <v/>
       </c>
       <c r="P28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "I am a sponge"?</v>
+        <v/>
       </c>
       <c r="Q28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901027</v>
       </c>
       <c r="R28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "I am a sponge"?</v>
       </c>
       <c r="S28" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T28" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="10"/>
@@ -19999,11 +20047,11 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
@@ -20017,31 +20065,31 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901028</v>
       </c>
       <c r="P29" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "I am not an octopus"?</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901028</v>
+        <v/>
       </c>
       <c r="R29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "I am not an octopus"?</v>
+        <v/>
       </c>
       <c r="S29" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T29" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U29" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V29" t="str">
         <f t="shared" si="10"/>
@@ -20078,11 +20126,11 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
@@ -20096,31 +20144,31 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901029</v>
       </c>
       <c r="P30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "sitting on the fence"?</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901029</v>
+        <v/>
       </c>
       <c r="R30" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "sitting on the fence"?</v>
+        <v/>
       </c>
       <c r="S30" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T30" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U30" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="10"/>
@@ -20157,11 +20205,11 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
@@ -20175,31 +20223,31 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901030</v>
       </c>
       <c r="P31" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "a web of lies"?</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901030</v>
+        <v/>
       </c>
       <c r="R31" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "a web of lies"?</v>
+        <v/>
       </c>
       <c r="S31" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T31" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U31" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="10"/>
@@ -20236,11 +20284,11 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
@@ -20254,31 +20302,31 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901031</v>
       </c>
       <c r="P32" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "under the radar"?</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901031</v>
+        <v/>
       </c>
       <c r="R32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "under the radar"?</v>
+        <v/>
       </c>
       <c r="S32" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T32" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U32" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V32" t="str">
         <f t="shared" si="10"/>
@@ -20315,11 +20363,11 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
@@ -20333,31 +20381,31 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901032</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "crossroads"?</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901032</v>
+        <v/>
       </c>
       <c r="R33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "crossroads"?</v>
+        <v/>
       </c>
       <c r="S33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T33" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U33" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="10"/>
@@ -20394,11 +20442,11 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
@@ -20412,31 +20460,31 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901033</v>
+        <v/>
       </c>
       <c r="P34" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "second wave"?</v>
+        <v/>
       </c>
       <c r="Q34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901033</v>
       </c>
       <c r="R34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "second wave"?</v>
       </c>
       <c r="S34" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T34" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="10"/>
@@ -20552,11 +20600,11 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
@@ -20570,31 +20618,31 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901035</v>
+        <v/>
       </c>
       <c r="P36" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "She felt a wave of tiredness sweep over her"?</v>
+        <v/>
       </c>
       <c r="Q36" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901035</v>
       </c>
       <c r="R36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "She felt a wave of tiredness sweep over her"?</v>
       </c>
       <c r="S36" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T36" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="10"/>
@@ -20789,11 +20837,11 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
@@ -20807,31 +20855,31 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901038</v>
       </c>
       <c r="P39" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "a barometer of the China-US relationship"?</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901038</v>
+        <v/>
       </c>
       <c r="R39" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "a barometer of the China-US relationship"?</v>
+        <v/>
       </c>
       <c r="S39" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T39" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U39" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V39" t="str">
         <f t="shared" si="10"/>
@@ -20868,11 +20916,11 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
@@ -20886,31 +20934,31 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901039</v>
+        <v/>
       </c>
       <c r="P40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "a wish list"?</v>
+        <v/>
       </c>
       <c r="Q40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901039</v>
       </c>
       <c r="R40" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "a wish list"?</v>
       </c>
       <c r="S40" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T40" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="10"/>
@@ -21026,11 +21074,11 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
@@ -21044,31 +21092,31 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901041</v>
       </c>
       <c r="P42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "diploma mill"?</v>
       </c>
       <c r="Q42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901041</v>
+        <v/>
       </c>
       <c r="R42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "diploma mill"?</v>
+        <v/>
       </c>
       <c r="S42" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T42" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U42" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V42" t="str">
         <f t="shared" si="10"/>
@@ -21184,11 +21232,11 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
@@ -21202,31 +21250,31 @@
       </c>
       <c r="O44" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901043</v>
+        <v/>
       </c>
       <c r="P44" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "cradle of Chinese civilization"?</v>
+        <v/>
       </c>
       <c r="Q44" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901043</v>
       </c>
       <c r="R44" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "cradle of Chinese civilization"?</v>
       </c>
       <c r="S44" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T44" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" si="10"/>
@@ -21263,11 +21311,11 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
@@ -21281,31 +21329,31 @@
       </c>
       <c r="O45" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901044</v>
       </c>
       <c r="P45" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "from the cradle to the grave"?</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901044</v>
+        <v/>
       </c>
       <c r="R45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "from the cradle to the grave"?</v>
+        <v/>
       </c>
       <c r="S45" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T45" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U45" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V45" t="str">
         <f t="shared" si="10"/>
@@ -21500,11 +21548,11 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
@@ -21518,31 +21566,31 @@
       </c>
       <c r="O48" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901047</v>
+        <v/>
       </c>
       <c r="P48" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "halo effect"?</v>
+        <v/>
       </c>
       <c r="Q48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901047</v>
       </c>
       <c r="R48" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "halo effect"?</v>
       </c>
       <c r="S48" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T48" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U48" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V48" t="str">
         <f t="shared" si="10"/>
@@ -21816,11 +21864,11 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
@@ -21834,31 +21882,31 @@
       </c>
       <c r="O52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901051</v>
       </c>
       <c r="P52" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "hot potato"?</v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901051</v>
+        <v/>
       </c>
       <c r="R52" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "hot potato"?</v>
+        <v/>
       </c>
       <c r="S52" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T52" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U52" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V52" t="str">
         <f t="shared" si="10"/>
@@ -21974,11 +22022,11 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
@@ -21992,31 +22040,31 @@
       </c>
       <c r="O54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901053</v>
       </c>
       <c r="P54" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "Golden 72 hours"?</v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901053</v>
+        <v/>
       </c>
       <c r="R54" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "Golden 72 hours"?</v>
+        <v/>
       </c>
       <c r="S54" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T54" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U54" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="10"/>
@@ -22290,11 +22338,11 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <f t="shared" si="2"/>
@@ -22308,31 +22356,31 @@
       </c>
       <c r="O58" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901057</v>
+        <v/>
       </c>
       <c r="P58" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "Executive time"?</v>
+        <v/>
       </c>
       <c r="Q58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901057</v>
       </c>
       <c r="R58" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "Executive time"?</v>
       </c>
       <c r="S58" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T58" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U58" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" si="10"/>
@@ -22448,11 +22496,11 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
@@ -22466,31 +22514,31 @@
       </c>
       <c r="O60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901059</v>
       </c>
       <c r="P60" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "chain stores"?</v>
       </c>
       <c r="Q60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901059</v>
+        <v/>
       </c>
       <c r="R60" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "chain stores"?</v>
+        <v/>
       </c>
       <c r="S60" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T60" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U60" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V60" t="str">
         <f t="shared" si="10"/>
@@ -22606,11 +22654,11 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <f t="shared" si="2"/>
@@ -22624,31 +22672,31 @@
       </c>
       <c r="O62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>L20901061</v>
       </c>
       <c r="P62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>What is the concept of "karma"?</v>
       </c>
       <c r="Q62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L30901061</v>
+        <v/>
       </c>
       <c r="R62" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>What is the meaning of "karma"?</v>
+        <v/>
       </c>
       <c r="S62" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T62" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U62" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V62" t="str">
         <f t="shared" si="10"/>
@@ -22764,11 +22812,11 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <f t="shared" si="2"/>
@@ -22782,31 +22830,31 @@
       </c>
       <c r="O64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L20901063</v>
+        <v/>
       </c>
       <c r="P64" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>What is the concept of "happy hour"?</v>
+        <v/>
       </c>
       <c r="Q64" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>L30901063</v>
       </c>
       <c r="R64" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>What is the meaning of "happy hour"?</v>
       </c>
       <c r="S64" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T64" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U64" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" si="10"/>
@@ -23238,11 +23286,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <f t="shared" si="14"/>
@@ -23256,31 +23304,31 @@
       </c>
       <c r="O70" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901069</v>
+        <v/>
       </c>
       <c r="P70" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "car pool"?</v>
+        <v/>
       </c>
       <c r="Q70" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901069</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "car pool"?</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="22"/>
@@ -23317,11 +23365,11 @@
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <f t="shared" si="14"/>
@@ -23335,31 +23383,31 @@
       </c>
       <c r="O71" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901070</v>
       </c>
       <c r="P71" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "lightning rod"?</v>
       </c>
       <c r="Q71" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901070</v>
+        <v/>
       </c>
       <c r="R71" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "lightning rod"?</v>
+        <v/>
       </c>
       <c r="S71" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T71" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U71" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V71" t="str">
         <f t="shared" si="22"/>
@@ -23633,11 +23681,11 @@
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
         <f t="shared" si="14"/>
@@ -23651,31 +23699,31 @@
       </c>
       <c r="O75" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901074</v>
+        <v/>
       </c>
       <c r="P75" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "a straight face"?</v>
+        <v/>
       </c>
       <c r="Q75" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901074</v>
       </c>
       <c r="R75" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "a straight face"?</v>
       </c>
       <c r="S75" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T75" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U75" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V75" t="str">
         <f t="shared" si="22"/>
@@ -23712,11 +23760,11 @@
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <f t="shared" si="14"/>
@@ -23730,31 +23778,31 @@
       </c>
       <c r="O76" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901075</v>
+        <v/>
       </c>
       <c r="P76" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "hourglass figure"?</v>
+        <v/>
       </c>
       <c r="Q76" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901075</v>
       </c>
       <c r="R76" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "hourglass figure"?</v>
       </c>
       <c r="S76" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T76" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U76" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V76" t="str">
         <f t="shared" si="22"/>
@@ -23946,11 +23994,11 @@
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <f t="shared" si="14"/>
@@ -23964,31 +24012,31 @@
       </c>
       <c r="O79" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901078</v>
+        <v/>
       </c>
       <c r="P79" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "greasy pole"?</v>
+        <v/>
       </c>
       <c r="Q79" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901078</v>
       </c>
       <c r="R79" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "greasy pole"?</v>
       </c>
       <c r="S79" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T79" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U79" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V79" t="str">
         <f t="shared" si="22"/>
@@ -24025,11 +24073,11 @@
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <f t="shared" si="14"/>
@@ -24043,31 +24091,31 @@
       </c>
       <c r="O80" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901079</v>
       </c>
       <c r="P80" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "Russian roulette"?</v>
       </c>
       <c r="Q80" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901079</v>
+        <v/>
       </c>
       <c r="R80" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "Russian roulette"?</v>
+        <v/>
       </c>
       <c r="S80" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T80" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U80" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V80" t="str">
         <f t="shared" si="22"/>
@@ -24183,11 +24231,11 @@
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <f t="shared" si="14"/>
@@ -24201,31 +24249,31 @@
       </c>
       <c r="O82" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901081</v>
+        <v/>
       </c>
       <c r="P82" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "mouthpiece"?</v>
+        <v/>
       </c>
       <c r="Q82" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901081</v>
       </c>
       <c r="R82" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "mouthpiece"?</v>
       </c>
       <c r="S82" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T82" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U82" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V82" t="str">
         <f t="shared" si="22"/>
@@ -24262,11 +24310,11 @@
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
         <f t="shared" si="14"/>
@@ -24280,31 +24328,31 @@
       </c>
       <c r="O83" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901082</v>
       </c>
       <c r="P83" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "potty parity"?</v>
       </c>
       <c r="Q83" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901082</v>
+        <v/>
       </c>
       <c r="R83" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "potty parity"?</v>
+        <v/>
       </c>
       <c r="S83" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T83" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U83" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V83" t="str">
         <f t="shared" si="22"/>
@@ -24420,11 +24468,11 @@
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85">
         <f t="shared" si="14"/>
@@ -24438,31 +24486,31 @@
       </c>
       <c r="O85" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901084</v>
+        <v/>
       </c>
       <c r="P85" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "pot luck dinner"?</v>
+        <v/>
       </c>
       <c r="Q85" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901084</v>
       </c>
       <c r="R85" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "pot luck dinner"?</v>
       </c>
       <c r="S85" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T85" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U85" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V85" t="str">
         <f t="shared" si="22"/>
@@ -24578,11 +24626,11 @@
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
         <f t="shared" si="14"/>
@@ -24596,31 +24644,31 @@
       </c>
       <c r="O87" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901086</v>
+        <v/>
       </c>
       <c r="P87" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "platform"?</v>
+        <v/>
       </c>
       <c r="Q87" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901086</v>
       </c>
       <c r="R87" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "platform"?</v>
       </c>
       <c r="S87" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T87" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U87" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V87" t="str">
         <f t="shared" si="22"/>
@@ -24657,11 +24705,11 @@
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
         <f t="shared" si="14"/>
@@ -24675,31 +24723,31 @@
       </c>
       <c r="O88" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901087</v>
       </c>
       <c r="P88" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "death spiral"?</v>
       </c>
       <c r="Q88" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901087</v>
+        <v/>
       </c>
       <c r="R88" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "death spiral"?</v>
+        <v/>
       </c>
       <c r="S88" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T88" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U88" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V88" t="str">
         <f t="shared" si="22"/>
@@ -24736,11 +24784,11 @@
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <f t="shared" si="14"/>
@@ -24754,31 +24802,31 @@
       </c>
       <c r="O89" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901088</v>
+        <v/>
       </c>
       <c r="P89" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "sweet spot"?</v>
+        <v/>
       </c>
       <c r="Q89" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901088</v>
       </c>
       <c r="R89" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "sweet spot"?</v>
       </c>
       <c r="S89" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T89" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U89" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V89" t="str">
         <f t="shared" si="22"/>
@@ -24894,11 +24942,11 @@
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91">
         <f t="shared" si="14"/>
@@ -24912,31 +24960,31 @@
       </c>
       <c r="O91" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901090</v>
+        <v/>
       </c>
       <c r="P91" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "golden handshake"?</v>
+        <v/>
       </c>
       <c r="Q91" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901090</v>
       </c>
       <c r="R91" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "golden handshake"?</v>
       </c>
       <c r="S91" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T91" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U91" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V91" t="str">
         <f t="shared" si="22"/>
@@ -24973,11 +25021,11 @@
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92">
         <f t="shared" si="14"/>
@@ -24991,31 +25039,31 @@
       </c>
       <c r="O92" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901091</v>
       </c>
       <c r="P92" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "golden parachute"?</v>
       </c>
       <c r="Q92" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901091</v>
+        <v/>
       </c>
       <c r="R92" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "golden parachute"?</v>
+        <v/>
       </c>
       <c r="S92" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T92" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U92" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V92" t="str">
         <f t="shared" si="22"/>
@@ -25052,11 +25100,11 @@
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
         <f t="shared" si="14"/>
@@ -25070,31 +25118,31 @@
       </c>
       <c r="O93" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901092</v>
+        <v/>
       </c>
       <c r="P93" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "golden hellos"?</v>
+        <v/>
       </c>
       <c r="Q93" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901092</v>
       </c>
       <c r="R93" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "golden hellos"?</v>
       </c>
       <c r="S93" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T93" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U93" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V93" t="str">
         <f t="shared" si="22"/>
@@ -25131,11 +25179,11 @@
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94">
         <f t="shared" si="14"/>
@@ -25149,31 +25197,31 @@
       </c>
       <c r="O94" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901093</v>
+        <v/>
       </c>
       <c r="P94" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "goldfish bowl"?</v>
+        <v/>
       </c>
       <c r="Q94" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901093</v>
       </c>
       <c r="R94" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "goldfish bowl"?</v>
       </c>
       <c r="S94" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T94" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U94" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V94" t="str">
         <f t="shared" si="22"/>
@@ -25210,11 +25258,11 @@
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95">
         <f t="shared" si="14"/>
@@ -25228,31 +25276,31 @@
       </c>
       <c r="O95" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901094</v>
       </c>
       <c r="P95" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "couch potato"?</v>
       </c>
       <c r="Q95" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901094</v>
+        <v/>
       </c>
       <c r="R95" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "couch potato"?</v>
+        <v/>
       </c>
       <c r="S95" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T95" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U95" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V95" t="str">
         <f t="shared" si="22"/>
@@ -25447,11 +25495,11 @@
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <f t="shared" si="14"/>
@@ -25465,31 +25513,31 @@
       </c>
       <c r="O98" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901097</v>
+        <v/>
       </c>
       <c r="P98" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "weasel word"?</v>
+        <v/>
       </c>
       <c r="Q98" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901097</v>
       </c>
       <c r="R98" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "weasel word"?</v>
       </c>
       <c r="S98" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T98" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U98" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V98" t="str">
         <f t="shared" si="22"/>
@@ -25684,11 +25732,11 @@
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
         <f t="shared" si="14"/>
@@ -25702,31 +25750,31 @@
       </c>
       <c r="O101" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901100</v>
       </c>
       <c r="P101" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "flea market"?</v>
       </c>
       <c r="Q101" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901100</v>
+        <v/>
       </c>
       <c r="R101" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "flea market"?</v>
+        <v/>
       </c>
       <c r="S101" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T101" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U101" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V101" t="str">
         <f t="shared" si="22"/>
@@ -26158,11 +26206,11 @@
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107">
         <f t="shared" si="14"/>
@@ -26176,31 +26224,31 @@
       </c>
       <c r="O107" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901106</v>
+        <v/>
       </c>
       <c r="P107" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "Jack of all trades"?</v>
+        <v/>
       </c>
       <c r="Q107" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901106</v>
       </c>
       <c r="R107" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "Jack of all trades"?</v>
       </c>
       <c r="S107" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T107" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U107" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V107" t="str">
         <f t="shared" si="22"/>
@@ -26237,11 +26285,11 @@
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108">
         <f t="shared" si="14"/>
@@ -26255,31 +26303,31 @@
       </c>
       <c r="O108" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901107</v>
       </c>
       <c r="P108" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "silver bullet "?</v>
       </c>
       <c r="Q108" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901107</v>
+        <v/>
       </c>
       <c r="R108" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "silver bullet "?</v>
+        <v/>
       </c>
       <c r="S108" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T108" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U108" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V108" t="str">
         <f t="shared" si="22"/>
@@ -26474,11 +26522,11 @@
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111">
         <f t="shared" si="14"/>
@@ -26492,31 +26540,31 @@
       </c>
       <c r="O111" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901110</v>
+        <v/>
       </c>
       <c r="P111" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "silver tongue"?</v>
+        <v/>
       </c>
       <c r="Q111" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901110</v>
       </c>
       <c r="R111" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "silver tongue"?</v>
       </c>
       <c r="S111" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T111" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U111" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V111" t="str">
         <f t="shared" si="22"/>
@@ -26553,11 +26601,11 @@
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112">
         <f t="shared" si="14"/>
@@ -26571,31 +26619,31 @@
       </c>
       <c r="O112" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901111</v>
       </c>
       <c r="P112" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "olive branch"?</v>
       </c>
       <c r="Q112" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901111</v>
+        <v/>
       </c>
       <c r="R112" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "olive branch"?</v>
+        <v/>
       </c>
       <c r="S112" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T112" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U112" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V112" t="str">
         <f t="shared" si="22"/>
@@ -26711,11 +26759,11 @@
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
         <f t="shared" si="14"/>
@@ -26729,31 +26777,31 @@
       </c>
       <c r="O114" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901113</v>
       </c>
       <c r="P114" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "lame-duck president"?</v>
       </c>
       <c r="Q114" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901113</v>
+        <v/>
       </c>
       <c r="R114" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "lame-duck president"?</v>
+        <v/>
       </c>
       <c r="S114" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T114" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U114" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V114" t="str">
         <f t="shared" si="22"/>
@@ -26948,11 +26996,11 @@
       </c>
       <c r="J117">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117">
         <f t="shared" si="14"/>
@@ -26966,31 +27014,31 @@
       </c>
       <c r="O117" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901116</v>
       </c>
       <c r="P117" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "zero tolerance"?</v>
       </c>
       <c r="Q117" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901116</v>
+        <v/>
       </c>
       <c r="R117" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "zero tolerance"?</v>
+        <v/>
       </c>
       <c r="S117" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T117" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U117" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V117" t="str">
         <f t="shared" si="22"/>
@@ -27106,11 +27154,11 @@
       </c>
       <c r="J119">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119">
         <f t="shared" si="14"/>
@@ -27124,31 +27172,31 @@
       </c>
       <c r="O119" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901118</v>
       </c>
       <c r="P119" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "a pawn"?</v>
       </c>
       <c r="Q119" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901118</v>
+        <v/>
       </c>
       <c r="R119" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "a pawn"?</v>
+        <v/>
       </c>
       <c r="S119" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T119" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U119" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V119" t="str">
         <f t="shared" si="22"/>
@@ -27185,11 +27233,11 @@
       </c>
       <c r="J120">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120">
         <f t="shared" si="14"/>
@@ -27203,31 +27251,31 @@
       </c>
       <c r="O120" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901119</v>
       </c>
       <c r="P120" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "bottleneck"?</v>
       </c>
       <c r="Q120" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901119</v>
+        <v/>
       </c>
       <c r="R120" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "bottleneck"?</v>
+        <v/>
       </c>
       <c r="S120" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T120" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U120" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V120" t="str">
         <f t="shared" si="22"/>
@@ -27264,11 +27312,11 @@
       </c>
       <c r="J121">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121">
         <f t="shared" si="14"/>
@@ -27282,31 +27330,31 @@
       </c>
       <c r="O121" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>L20901120</v>
+        <v/>
       </c>
       <c r="P121" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>What is the concept of "Pandora's box"?</v>
+        <v/>
       </c>
       <c r="Q121" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>L30901120</v>
       </c>
       <c r="R121" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>What is the meaning of "Pandora's box"?</v>
       </c>
       <c r="S121" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="T121" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="U121" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="V121" t="str">
         <f t="shared" si="22"/>
@@ -27317,7 +27365,7 @@
         <v>How to say "灾难之源"?</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15.5">
+    <row r="122" spans="1:23" ht="29">
       <c r="A122" s="16">
         <v>9</v>
       </c>
@@ -27343,11 +27391,11 @@
       </c>
       <c r="J122">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122">
         <f t="shared" si="14"/>
@@ -27361,31 +27409,31 @@
       </c>
       <c r="O122" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901121</v>
       </c>
       <c r="P122" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "catalyst"?</v>
       </c>
       <c r="Q122" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901121</v>
+        <v/>
       </c>
       <c r="R122" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "catalyst"?</v>
+        <v/>
       </c>
       <c r="S122" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T122" s="28" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U122" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V122" t="str">
         <f t="shared" si="22"/>
@@ -27501,11 +27549,11 @@
       </c>
       <c r="J124">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124">
         <f t="shared" si="14"/>
@@ -27519,31 +27567,31 @@
       </c>
       <c r="O124" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>L20901123</v>
       </c>
       <c r="P124" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v/>
+        <v>What is the concept of "white lie"?</v>
       </c>
       <c r="Q124" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>L30901123</v>
+        <v/>
       </c>
       <c r="R124" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>What is the meaning of "white lie"?</v>
+        <v/>
       </c>
       <c r="S124" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="T124" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="U124" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="V124" t="str">
         <f t="shared" si="22"/>
@@ -27713,18 +27761,20 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W126" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{6042611E-E784-4ED2-8196-D3BB33193F17}" showPageBreaks="1" topLeftCell="C1">
-      <selection activeCell="H128" sqref="H128"/>
+    <customSheetView guid="{6042611E-E784-4ED2-8196-D3BB33193F17}" showPageBreaks="1" showAutoFilter="1" topLeftCell="S1">
+      <selection activeCell="H6" sqref="H6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:W126" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{361B79A2-7CA6-4057-95EF-C8897422D15F}">
+      <selection activeCell="E72" sqref="E72"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F9F41ACE-8F0F-4AF7-BC1F-2F412C7435C0}" topLeftCell="A106">
       <selection activeCell="H88" sqref="H88"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{361B79A2-7CA6-4057-95EF-C8897422D15F}">
-      <selection activeCell="E72" sqref="E72"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
